--- a/public/Quiz.xlsx
+++ b/public/Quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{853B5C75-E747-42FB-982A-6BD9E4F9B745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC84CF-519E-455D-8C58-0532AA83C81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{814585D2-DACD-4865-94B7-0CB5BA22B5AF}"/>
   </bookViews>
@@ -54,217 +54,217 @@
     <t>correct</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>El cliente te dice apenas entras: 'Hoy estoy a mil. Anotame lo de siempre y listo'. Tenes 2 minutos reales. Que harías para sostener el vinculo y actuar como asesor sin alargar?</t>
-  </si>
-  <si>
-    <t>“Dale, te anoto lo de siempre y no te robo tiempo”; cargás el habitual tal cual, sin relevar góndola/heladera ni validar faltantes para no incomodarlo.</t>
-  </si>
-  <si>
-    <t>“Para no errarle, necesito 3–4 preguntas”; abrís diagnóstico completo, aunque esté apurado, y seguís con el diagnóstico igual. Para no meter presión ni discutir.</t>
-  </si>
-  <si>
-    <t>“Ya que estás a mil, te confirmo rápido entregas y servicio”; metés logística para mostrar cuidado, y te enfocás en entregas y servicio.</t>
-  </si>
-  <si>
-    <t>“Perfecto, voy con la reposición base y te hago una sola rápida”; sumás 1 pregunta de negocio o una mini prueba (1 SKU) y cerrás sin estirar.</t>
-  </si>
-  <si>
-    <t>“Entiendo, pero así no puedo asesorarte”; marcás límite, sugerís reprogramar y cortás la visita, y proponés volver en otro horario.</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>Tenes que entrenar a un preventista nuevo. Cual frase describe mejor el objetivo del rol en ruta?</t>
-  </si>
-  <si>
-    <t>Mi trabajo es pasar, preguntar qué necesita y cargar exactamente lo que el cliente me pida.</t>
-  </si>
-  <si>
-    <t>Mi trabajo es hablar de ofertas todo el tiempo, y que el cliente termine comprando.</t>
-  </si>
-  <si>
-    <t>Mi trabajo es evitar faltantes que le hagan perder ventas y ayudarlo a vender más o ganar más según su problema.</t>
-  </si>
-  <si>
-    <t>Mi trabajo es discutir precio en cada visita para ganar la negociación.</t>
-  </si>
-  <si>
-    <t>Mi trabajo es visitar la mayor cantidad posible, incluso sin pedido.</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>Salis de una visita sin pedido porque el cliente estaba indeciso. Cual resultado minimo te conviene buscar antes de irte para que la visita no quede 'en el aire'?</t>
-  </si>
-  <si>
-    <t>cerrás con un “la próxima lo vemos” y te vas. Para no meter presión ni discutir.</t>
-  </si>
-  <si>
-    <t>Un avance concreto: prueba chica, cambio de exhibición o compromiso específico para la próxima (qué, cuánto y cuándo).</t>
-  </si>
-  <si>
-    <t>Una discusión de precio para que entienda tu punto y se vaya pensando que, al final, no estabas tan caro.</t>
-  </si>
-  <si>
-    <t>Que te firme un papel donde diga que no va a comprarle a la competencia, así te quedás “cubierto” en la zona.</t>
-  </si>
-  <si>
-    <t>Irte rápido para no incomodar, cortar la charla y volver otro día cuando esté de mejor humor.</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>El cliente te dice: 'No tengo tiempo para charlar'. Cual respuesta muestra mejor tu rol y cuida el vinculo?</t>
-  </si>
-  <si>
-    <t>Entonces decime rápido qué querés y listo, así no te demoro más.</t>
-  </si>
-  <si>
-    <t>Te entiendo: vamos hacerlo rápido, te hago una pregunta para ayudarte mejor. Hoy te complica más vender, ganar margen o el tiempo?</t>
-  </si>
-  <si>
-    <t>Ok, te dejo el catálogo y vuelvo otro día, cuando estés más tranquilo.</t>
-  </si>
-  <si>
-    <t>Si no charlamos, no te puedo vender nada, y así no pierdo el tiempo.</t>
-  </si>
-  <si>
-    <t>antes contame lo de la entrega anterior, así entiendo qué pasó y después vemos el pedido.</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>Cual acción al salir del local te acerca más a ser consistente visita a visita?</t>
-  </si>
-  <si>
-    <t>Anotar el monto final del pedido y cerrar la visita, sin agregar comentarios.</t>
-  </si>
-  <si>
-    <t>No anotar nada, confiar en la memoria y repasarlo luego antes de volver.</t>
-  </si>
-  <si>
-    <t>Registrar breve reposición, trabas y objetivo del cliente, y definir un próximo paso simple.</t>
-  </si>
-  <si>
-    <t>Mandar un audio al grupo con lo observado y el cierre de la visita.</t>
-  </si>
-  <si>
-    <t>Guardar una foto del frente del local, sin registrar qué se conversó adentro hoy.</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>El cliente suele ir al mayorista y se queja de cansancio. Como preventista asesor, cual enfoque tiene más sentido?</t>
-  </si>
-  <si>
-    <t>Sugerirle que cambie de rubro si el trabajo lo está cansando demasiado.</t>
-  </si>
-  <si>
-    <t>Ofrecerle una promo puntual para ver si así se anima a comprar algo hoy.</t>
-  </si>
-  <si>
-    <t>Pedirle que compre el doble para que no tenga que volver al mayorista por un tiempo.</t>
-  </si>
-  <si>
-    <t>Proponer un mix para cubrir días fuertes y reducir viajes, con cantidades cuidadas para evitar sobrestock.</t>
-  </si>
-  <si>
-    <t>Cerrar la visita por hoy y dejar agendado un regreso con foco en revisar reposición y necesidades</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>Un preventista dice: 'Mi trabajo termina cuando cargo el pedido'. Cual respuesta corrige mejor esa idea?</t>
-  </si>
-  <si>
-    <t>No: también incluye preparar la visita, recorrer, proponer y registrar lo que pasó para mejorar la próxima.</t>
-  </si>
-  <si>
-    <t>Sí, lo importante es cargar rápido y salir. Para ordenar el foco y avanzar.</t>
-  </si>
-  <si>
-    <t>No, termina cuando retirás el pago del cliente y te asegurás que quede todo cobrado, sin excepciones.</t>
-  </si>
-  <si>
-    <t>No, termina cuando revisás todas las entregas del mes y controlás cada detalle de logística y reparto.</t>
-  </si>
-  <si>
-    <t>No, termina cuando el cliente te recomienda en redes y te etiqueta. Para dejar una salida concreta.</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>Cliente con poco espacio: 'No me entra nada mas'. Que respuesta muestra rol asesor y criterio comercial?</t>
-  </si>
-  <si>
-    <t>Revisar qué no rota y ocupa lugar; proponer sacar eso y probar productos chicos, de alta rotación, en cantidades cuidadas.</t>
-  </si>
-  <si>
-    <t>Pedirle que lleve tres cajas más igual, confiando en que “después se acomoda” el espacio.</t>
-  </si>
-  <si>
-    <t>Aceptar el “no entra” y no ofrecer nada más hoy, cerrando la visita sin explorar alternativas.</t>
-  </si>
-  <si>
-    <t>Pedirle un rincón y cargarle el depósito para aprovechar la visita, sin validar capacidad real de espacio.</t>
-  </si>
-  <si>
-    <t>Dejar el tema como problema del cliente y seguir vendiendo sin aportar una alternativa concreta.</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>Ves que el cliente compra una categoría de tu portfolio a otro proveedor. Que secuencia es mas profesional?</t>
-  </si>
-  <si>
-    <t>Confrontar de entrada: “¿por qué me comprás a mí y a otro?”, y esperar respuesta.</t>
-  </si>
-  <si>
-    <t>Ignorarlo: si compra a otro no hay nada que hacer, y seguís como siempre.</t>
-  </si>
-  <si>
-    <t>Criticar al otro proveedor para que cambie. Para ordenar el foco y avanzar.</t>
-  </si>
-  <si>
-    <t>Ofrecer un descuento grande para “ganar” la compra. Para dejar una salida concreta.</t>
-  </si>
-  <si>
-    <t>Asegurar reposición de lo que rota y después preguntar con curiosidad qué valora ahí (precio, presentación o entrega).</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>Elegis el flujo de visita mas completo y ordenado para un preventista de VA Food.</t>
-  </si>
-  <si>
-    <t>Saludo, pedir el pedido y cerrar la visita, pasando rápido al siguiente cliente hoy.</t>
-  </si>
-  <si>
-    <t>Ir directo a reposición, saludar después y cerrar con preguntas de negocio.</t>
-  </si>
-  <si>
-    <t>Arrancar con promos generales, luego reposición, después saludar y cierre con monto final</t>
-  </si>
-  <si>
-    <t>Hacer charla personal extensa, tomar pedido y cerrar la visita con monto final.</t>
-  </si>
-  <si>
-    <t>Preparación, saludo con pregunta de negocio, reposición base, propuesta alineada y cierre con monto final. Respuestas + explicacion (por que es correcta)</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Estas a punto de entrar y vas tarde. Tenes 45 segundos. Cual preparacion minima te deja mejor parado para no improvisar adentro?</t>
+  </si>
+  <si>
+    <t>Entrar directo y preguntar “¿qué te anoto?” para ahorrar tiempo, sin preparar nada afuera.</t>
+  </si>
+  <si>
+    <t>Mirar solo promos generales y entrar a ofrecerlas, para no meter presión ni discutir.</t>
+  </si>
+  <si>
+    <t>Marcar GPS, mirar en Bot/App 2 datos (compra fija + última compra) y entrar con plan simple: base + 1 idea.</t>
+  </si>
+  <si>
+    <t>Pensar una estrategia sin mirar Bot/App: “adentro veo” y arrancar. Y seguís con el pedido en el sistema.</t>
+  </si>
+  <si>
+    <t>Llamar al cliente antes de entrar para preguntarle qué quiere y armar el pedido por teléfono.</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>En el Bot ves que un cliente que siempre compraba un producto fuerte bajo mucho el volumen las ultimas 2 visitas. Que preparación es más inteligente antes de entrar?</t>
+  </si>
+  <si>
+    <t>Ignorarlo y sostener la visita igual, asumiendo que ya no le interesa ese producto.</t>
+  </si>
+  <si>
+    <t>Entrar ofreciendo solo productos nuevos para subir ticket, sin revisar qué pasó con el fuerte.</t>
+  </si>
+  <si>
+    <t>Preparar una pregunta corta para entender el motivo (rotación/precio/competencia) y ajustar reposición a su realidad.</t>
+  </si>
+  <si>
+    <t>Entrar a reclamarle por qué bajó y presionarlo para que vuelva a subir el volumen.</t>
+  </si>
+  <si>
+    <t>No visitarlo por ahora, asumir que no vale la pena y pasar al siguiente cliente hoy.</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Cual de estas cosas NO es parte del checklist de preparacion inmediata antes de entrar?</t>
+  </si>
+  <si>
+    <t>Marcar GPS al llegar. Para no meter presión ni discutir.</t>
+  </si>
+  <si>
+    <t>Revisar qué compra siempre, cantidades y frecuencia. Para que quede corto y claro.</t>
+  </si>
+  <si>
+    <t>Identificar si compra categorías del portfolio a otros proveedores.</t>
+  </si>
+  <si>
+    <t>Memorizar una lista completa de 10 promos para decirlas todas</t>
+  </si>
+  <si>
+    <t>Recordar su problema principal de la visita anterior.</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>Cliente nuevo sin historial. Cual seria una preparacion minima aceptable antes de entrar?</t>
+  </si>
+  <si>
+    <t>Entrar sin preparar nada y empezar la conversación “a ver qué sale” en el momento.</t>
+  </si>
+  <si>
+    <t>Marcar GPS, revisar ofertas zonales y armar un pedido base típico más una pregunta de diagnóstico.</t>
+  </si>
+  <si>
+    <t>Marcar GPS y confiar en improvisar todo adentro, sin revisar información previa del recorrido.</t>
+  </si>
+  <si>
+    <t>Entrar con un discurso de promos generales y esperar que alguna alternativa le interese hoy.</t>
+  </si>
+  <si>
+    <t>Postergar la visita hasta tener compras registradas y recién ahí empezar a trabajarlo en serio.</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>Tenes 6 promos activas. En el Bot ves que el cliente viene quejandose de margen. Que decision previa es mas solida?</t>
+  </si>
+  <si>
+    <t>Entrar y recitar las 6 promos seguidas, esperando que alguna le cierre en el momento.</t>
+  </si>
+  <si>
+    <t>Elegir la promo más fuerte del mes, aunque no conecte con el problema de margen del cliente.</t>
+  </si>
+  <si>
+    <t>Evitar promos por completo y limitarte a tomar el pedido habitual sin proponer alternativas.</t>
+  </si>
+  <si>
+    <t>Seleccionar 1–2 promos que mejoren margen y preparar una frase simple de beneficio para ese cliente.</t>
+  </si>
+  <si>
+    <t>Ofrecer solo lanzamientos nuevos y dejar afuera promos pensadas para margen y rotación del local.</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Antes de entrar, recordas que el cliente te dijo la visita pasada: 'no tengo mas lugar'. Que mini estrategia pre-armas?</t>
+  </si>
+  <si>
+    <t>Entrar con foco en subir volumen para aprovechar el viaje, aunque ya avisó que no tiene espacio.</t>
+  </si>
+  <si>
+    <t>Entrar con foco en liberar espacio: ver qué no rota y proponer alta rotación en pocas unidades y formato chico.</t>
+  </si>
+  <si>
+    <t>No ofrecer nada nuevo y pedir solo “lo de siempre”, aunque la traba de espacio siga igual.</t>
+  </si>
+  <si>
+    <t>Cambiar el tema hacia impuestos y desviar la conversación, sin resolver la traba principal del cliente.</t>
+  </si>
+  <si>
+    <t>Evitar mirar depósito/estantería para no incomodar y seguir la visita como si no hubiera problema.</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>Te diste cuenta de que entraste sin marcar GPS. Que accion es mas profesional?</t>
+  </si>
+  <si>
+    <t>Marcar GPS apenas puedas (si hace falta, salir un segundo a la puerta) para que la visita quede registrada.</t>
+  </si>
+  <si>
+    <t>Seguir la visita normal sin marcar GPS y darlo por perdido en esta vuelta.</t>
+  </si>
+  <si>
+    <t>Marcar el GPS al final del día desde cualquier lugar, solo para que figure en el sistema.</t>
+  </si>
+  <si>
+    <t>Pedirle al cliente que confirme que estuviste y usar eso como reemplazo del GPS.</t>
+  </si>
+  <si>
+    <t>Marcar GPS en el negocio siguiente “para compensar” y cerrar el número de visitas.</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>Ordena la secuencia mas logica antes de entrar (1 minuto de preparacion).</t>
+  </si>
+  <si>
+    <t>Marcar GPS -&gt; mirar Bot/App -&gt; pensar 1–2 ideas -&gt; entrar y saludar con foco.</t>
+  </si>
+  <si>
+    <t>Entrar y saludar -&gt; marcar GPS -&gt; mirar Bot/App -&gt; pensar estrategia ya adentro.</t>
+  </si>
+  <si>
+    <t>Mirar Bot/App -&gt; entrar y saludar -&gt; marcar GPS -&gt; pensar estrategia a mitad de visita.</t>
+  </si>
+  <si>
+    <t>Pensar estrategia -&gt; entrar y saludar -&gt; mirar Bot/App -&gt; marcar GPS al final.</t>
+  </si>
+  <si>
+    <t>Marcar GPS -&gt; entrar -&gt; pensar estrategia sin mirar Bot/App y salir improvisando.</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>Cual de estas senales en el Bot/App deberia prenderte una luz para preparar la visita con mas cuidado?</t>
+  </si>
+  <si>
+    <t>Compra siempre lo mismo con la misma frecuencia, y todo viene estable, sin cambios grandes.</t>
+  </si>
+  <si>
+    <t>Tiene pedidos regulares y un comportamiento parejo, sin cambios relevantes. Para seguir con la visita con orden.</t>
+  </si>
+  <si>
+    <t>Tiene histórico corto pero constante, sin variaciones fuertes, y mantiene el mismo patrón.</t>
+  </si>
+  <si>
+    <t>No tiene promos activas hoy, pero su compra viene normal y no hay alertas de caída.</t>
+  </si>
+  <si>
+    <t>Bajó de golpe un producto que antes rotaba bien, y se repitió en las últimas dos visitas.</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>Cual de estas notas de pre-visita es la mas util (1 renglon) para entrar con plan?</t>
+  </si>
+  <si>
+    <t>“Repasar qué rotó la última visita y entrar con 1 pregunta corta para entender qué cambió.”</t>
+  </si>
+  <si>
+    <t>“Priorizar 2 promos que encajen con su compra habitual y mencionarlas si aparece la oportunidad.”</t>
+  </si>
+  <si>
+    <t>“Repasar caballitos X e Y y chequear si hay quiebre/stock para ajustar reposición sin inflar.”</t>
+  </si>
+  <si>
+    <t>“Entrar a escuchar primero y, según lo que diga, armar una propuesta simple en el momento.”</t>
+  </si>
+  <si>
+    <t>“Repongo X e Y (caballitos) + propongo prueba acotada para margen o ahorro de viajes hoy.” Respuestas + explicacion (por que es correcta)</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -735,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -793,7 +793,7 @@
         <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -822,7 +822,7 @@
         <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
